--- a/500all/speech_level/speeches_CHRG-114hhrg22866.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22866.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I hereby call this hearing of the Europe, Eurasia, and Emerging Threats Subcommittee into order. This will be the final subcommittee event of the year, and I must say it has been a pleasure to chair this subcommittee and to serve with my friend and colleague and ranking member, Mr. Meeks.    Mr. Meeks, thank you so much. We have had a good 2 years together here. We will see what happens next time around. No one knows. I very much look forward to continued collaboration one way or the other in the new Congress.    So with that said, for this hearing we are focusing on corruption in Europe and Eurasia. This issue has not been really the recipient of much attention. It certainly hasn't received the attention it deserves. Both globally and in particular countries this committee oversees it seems that this issue just hasn't really been touched on. It is like maybe some sort of a hot stove.    But the corruption, we have to recognize, has been a major factor since the end of the cold war in the former Soviet states. These countries have worked with various degrees of success to privatize their own state-owned industries and build various institutions that allow for democracy and prosperity.    In short, for them corruption has been a common stumbling block to progress, as it is also, as we recognize, in Third World countries, whether or not it is petty corruption, perhaps by a police officer who is looking to give you a ticket or, at a grander level of corruption, where private interests actually capture control of large chunks of state assets. It hampers reforms, corruption holds back economic growth, and in far too many cases it also impoverishes low-income populations in countries that could be doing much better for their entire population.    Now, when government institutions serve private interests, enriching oligarchs and enriching politicians instead of addressing the needs of its people, that undermines the faith in government and the rule of law, it undermines the basic stability and any chance for prosperity, at least any chance for ordinary people to live in prosperity in these countries.    Hence, if we understand the general aim of U.S. policy as promoting prosperous, peaceful, and pluralistic countries, fighting corruption should be at the center of that effort. Unfortunately, it is not, and perhaps because there are powerful Western accomplices to these crimes of corruption in developing countries.    While we should call out and hold accountable corrupt officials, it is important to understand that in some places corruption is the rule, not the exception. I would like to cite a recent survey released by Transparency International that found that one in three people living in Europe and Central Asia believe corruption to be one of the largest problems of their country.    Policymakers in the United States and Europe need to think about broad and systematic approaches to this challenge. For example, Western banks, are they complicit in money laundering for corrupt officials? Does that make them an accomplice to the theft of resources that should serve the poorest and most vulnerable people of the world, but instead those resources are being utilized and the profit from it are going to large financial institutions in cooperation with local gangsters and thugs in those countries?    What about us? Could we do more to ensure that corrupt officials can't store their ill-gotten gains in Western banks or use it to buy property or businesses in our country?    This is too much for today, it is too much for just today, but it will be the subject for an investigative hearing or investigative hearings in the years ahead, whether I am here or not.    I am looking forward to a discussion today of these things with our witnesses, and I look forward to their testimonies. And without objection, their written statements will be made part of the record.    And I will turn to my ranking member, Mr. Gregory Meeks.</t>
   </si>
   <si>
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. I want to thank you, Mr. Chairman, for calling this timely hearing--our last. I guess, this will be our last of the 114th Congress----</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    And I want to associate myself with the remarks just made by my good friend from New York. And I also salute the bravery of our guest witness here today. Thank you for participating.    And I would ask unanimous consent my full statement be entered into the record at this time.</t>
   </si>
   <si>
@@ -100,27 +91,18 @@
     <t xml:space="preserve">    Mr. Rohrabacher. And Mr. Weber has decided not to have an opening statement; although, I am sure he would like to comment on how the Democratic candidates deserve to be investigated in our last election in their financial dealings as well. But I won't put words into his mouth, but I thought somebody needed to make that point.    So with that said, I would like to welcome the witnesses. And if we could, if you could summarize your testimony in 5-minute segments, and then we will get into the questions and answers. And what I will do is I will introduce all of you and then we will start with Mr. Davidson after this introduction.    So we have Charles Davidson, who is the executive director of Kleptocracy Initiative at the Hudson Institute, as well as being the publisher of the American Interest magazine. The Kleptocracy Initiative and its stated goal is to conduct original research into the growing threat posed by democracies by autocratic regimes structured as kleptocracies.    And I think it will be very fascinating to get into some definitions, not only kleptocracy but exactly what is corruption and what is not corruption. And looking forward to your testimony.    And then we have also with us Ivan Vejvoda, who is a senior vice president for programs at the German Marshall Fund here in Washington. From 2010 to 2013 he was the executive director of that organization's Balkan Trust for Democracy Program. Before that, he was an adviser to the Serbian Government and a long-time advocate of democracy in that region and honest government.    And we have also with us today, and as we heard from Mr. Meeks, a Russian-born businessman, Mr. Sergei Kolesnikov.    Is that right? Did I get it?</t>
   </si>
   <si>
-    <t>Kolesnikov</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kolesnikov. Kolesnikov.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Okay. And we are very happy to have you with us today.    He is a Russian-born businessman who has traveled from outside the United States to come here today to testify at this hearing. In 2010, he left Russia and went to the press about certain allegations of high-level corruption within the Russian Government.    So today we are going to be focusing on corruption both in theory and definitions of what is and what is taking place, but also in specifics in terms of different examples of corruption that are going on and how they impact--which is important--how that corruption impacts the people of the countries which are suffering from that corruption of their government.    So with that said, Mr. Davidson, you may begin your 5-minute presentation.</t>
   </si>
   <si>
-    <t>Davidson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davidson. Mr. Chairman, Ranking Member Meeks, and distinguished members of the subcommittee, I appreciate the invitation to appear before you today. And I must say, these opening statements were so impressive to me. I think that Chairman Rohrabacher's statement perfectly summarizes the overall issue. And I agree with everything that Mr. Meeks said.    So I will try to run through my statement very rapidly and touch on this enabler issue which was brought up, and go to the conclusions as to what we can do about this sort of thing. So I am going to gloss over agreeing with you on these various matters.    And in terms of what corruption does to societies in undermining rule of law, subverting institutions, encouraging cultures of lawlessness, how it impoverishes the citizens of these countries, we all see this. I think it is worth reminding ourselves again and again that the Maidan Revolution was really about corruption. All those young people were talking about corruption all the time. It was really the driver of that revolution.    And in terms of the definitions and how all this evolved, institutionalized corruption, when it becomes the norm and consolidates its political power and we get actual state capture, that is what we talk about at least in terms of being kleptocracy. It is when corruption has really taken over the state and we get the rule of thieves.    And obviously, these kleptocratic regimes have little appetite for democracy. I think an important point, in particular for our business community, is that these regimes have very little taste for free-market competition, so little taste that, in fact, corruption and exporting it is sort of an existential issue for them. They can't compete in the free market.    And we have, indeed, as was mentioned, been a partner in this whole system. And the way that has worked--and we published an article about this called, ``Stage Hands: How Western Enablers Facilitate Kleptocracy''--well, first, you have got to be able to loot the country, take it out of the country and put it in a safe place. We provide that safe place. Then, of course, there is a third stage where you hire public relations people and you put your children in the right schools and you become a full-fledged member of the West and become a very respectable person.    And I think another thing we need to focus on more is the issue of incentive. When we do this, when we provide this safe haven, we are incentivizing corruption, and then we are further incentivizing all the way to kleptocracy. And this is something we really need to think about, and stop providing the punch bowl, if you will.    The Ukrainian example we have already looked at.    We don't really talk enough about authoritarianism in all of this. What we see now with the authoritarian threats is that authoritarian regimes that have become very militarily aggressive--and there are two I have in mind, which I barely need to name. They both happen to be structured as kleptocracies. Their elites are keeping their loot in the West, in our banks and financial institutions, in our real estate. And you would think we have a little bit of leverage over them, perhaps more than we are using.    On this overall issue I mentioned, we published a paper called ``The Kleptocracy Curse,'' which may be of interest, which is almost an expansion of Chairman Rohrabacher's initial statement, expands on all those points.    What can we do? I have 33 seconds to talk about that, and I will go right to the issue of anonymous companies, shell companies, whatever we want to call them. There are a few other recommendations in the testimony, they all pale in the face of the importance of the anonymous company question, in my opinion and in the opinion of many people that I have spoken with in law enforcement and the State Department, private investigators, large private investigator firms. There seems to be a real consensus that this is a huge part of the problem.    And I will leave it at that. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. You may proceed.</t>
   </si>
   <si>
-    <t>Vejvoda</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vejvoda. Mr. Chairman, Ranking Member, members of the committee, thank you very much for the invitation to testify before you today on this important subject, as we have heard both from the introductory statements and from my colleague Charles Davidson.    Democratic transitions after 1989 confront the issue of the fact that there was practically no democratic political culture in the post-Communist space, in the space where one party ruled there was no pluralism, and where human rights were unknown to people. And so it had to begin with, as Hannah Arendt would put it, giving people the right, to understand that they have a right to have rights.    And so the legacy of the old, the inertia of the old corrupt ways lives on as the democratic transition advances and as the democratic political culture tries to find its roots. And probably the best comparison is between Poland and Ukraine that had the same level of economic development in 1990. We see where Poland is today and we see what has happened to Ukraine, complete differences in standards of living and the institutional democratic culture, not that Poland is without problems today, as we know.    The political winners of the Communist system--the political losers as democratic transition happens become the economic winners because they have all the inside information. They have the network through the secret services. And ultimately, as economic winners, they again become the political winners because of the nexus between the oligarchic structures and political parties.    One particularly difficult issue that is addressed is that of political parties themselves, as they rise from nowhere after the crumbling of the Communist system. And the problem there is the financing of political parties. Where do these parties find moneys to actually have a party structure throughout a country?    And that means, of course, that they have to lean on private business, and this is where a lot of the corrupt practices between the politics and economics, to speak all too gently, happens and where a lot of the corrupt practices. Of course, in Western societies we know that there are also these kinds of issues, but I would really like to highlight that problem in addressing the issue of corruption.    I, unfortunately, coming from the former Yugoslavia and Serbia, had to live through the worst of a criminalization of society and the state of Serbia under sanctions that were imposed in 1992. For a country under sanctions to survive, it goes into full corrupt mode.    And so when we emerged from the Milosevic regime in 2000, this was the state of affairs that we had to confront, how does one start pushing back this criminalization that was pervasive through the state. And of course it requires what other post-Communist countries do, and that is to reinforce the structures of democratic institutions, of structural reform, et cetera.    But that, as you know, requires support from the outside. And the role that the United States, Canada, the European Union member states, with their support through USAID, through development agencies has been extremely important.    It, of course, behooves the citizens and governments in each of these countries, whether we are talking about Ukraine, Moldova, Serbia, Montenegro, Albania, Kosovo, to actually do the work of reform. They need to be the stakeholders. They need to sense the desire of citizens to have a society democratic based on the rule of law and human rights.    And so that burden is principally on them, but it cannot be done without the principle of solidarity that we have seen delivered through these 25 and more years. And it requires in terms of what is to be done a holistic approach, and some of it we have already heard from Charles Davidson. So support to journalists, investigative reporting, support to civil society that pressures from below the governments to make them more accountable and responsible. Customs are an extremely sensitive point.    But the key and the backbone is judicial reform, a truly independent judiciary where citizens feel that no one is above the law and that everyone gets a fair trial. And we see the difficulties in acquiring fully independent judiciaries.    And so I would urge that the continuing work of USAID with the European Union in support of these democratic processes is one of the backbones, as I said, along with the citizens themselves and their elected officials pushing toward strengthening the rule of law and creating further stability for democratic political culture.</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
   </si>
   <si>
     <t>412574</t>
-  </si>
-  <si>
-    <t>Randy K. Weber, Sr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    Mr. Vejvoda, you said political losses become economic winners in the new economy because they have insider information. So what you are seeing is a government, a country in turmoil, where it is going down because of the corruption, and yet the very ones who caused it to go down actually become the economic winners in the new order, if you will. Fix that for me.</t>
@@ -838,11 +817,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -862,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -890,11 +865,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -914,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -942,11 +913,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -966,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -994,11 +961,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1018,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1046,11 +1009,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1070,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1098,11 +1057,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1122,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1150,11 +1105,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1174,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1202,11 +1153,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1226,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1254,11 +1201,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1278,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1306,11 +1249,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1330,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1358,11 +1297,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1382,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1410,11 +1345,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1436,11 +1369,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1460,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1488,11 +1417,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1512,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1540,11 +1465,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1564,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1592,11 +1513,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1616,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1644,11 +1561,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1668,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1696,11 +1609,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1720,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1748,11 +1657,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1772,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1800,11 +1705,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1824,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1850,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1876,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1902,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1928,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1954,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1980,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2006,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2034,11 +1921,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2058,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2084,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2110,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2136,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2162,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2188,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2214,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>68</v>
-      </c>
-      <c r="H55" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2240,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2266,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2292,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2318,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2344,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2370,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2396,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2422,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2448,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2474,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2500,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2526,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2552,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2578,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2604,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2630,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
-      </c>
-      <c r="G71" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2656,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2682,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2708,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2734,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G75" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2760,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2786,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2812,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2838,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2864,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2890,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
-      </c>
-      <c r="G81" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2916,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2942,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
-      </c>
-      <c r="G83" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2968,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2994,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
-      </c>
-      <c r="G85" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3020,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3048,11 +2857,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3072,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3100,11 +2905,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3124,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3152,11 +2953,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3176,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3204,11 +3001,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3228,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3256,11 +3049,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3280,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3308,11 +3097,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3332,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3360,11 +3145,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3384,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3410,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3438,11 +3217,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3462,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3490,11 +3265,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3514,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3542,11 +3313,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3566,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3594,11 +3361,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3618,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3644,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3670,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3696,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3722,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3748,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3774,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3800,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3826,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3852,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3878,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3904,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>34</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3930,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3956,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3982,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4010,11 +3745,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22866.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22866.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I hereby call this hearing of the Europe, Eurasia, and Emerging Threats Subcommittee into order. This will be the final subcommittee event of the year, and I must say it has been a pleasure to chair this subcommittee and to serve with my friend and colleague and ranking member, Mr. Meeks.    Mr. Meeks, thank you so much. We have had a good 2 years together here. We will see what happens next time around. No one knows. I very much look forward to continued collaboration one way or the other in the new Congress.    So with that said, for this hearing we are focusing on corruption in Europe and Eurasia. This issue has not been really the recipient of much attention. It certainly hasn't received the attention it deserves. Both globally and in particular countries this committee oversees it seems that this issue just hasn't really been touched on. It is like maybe some sort of a hot stove.    But the corruption, we have to recognize, has been a major factor since the end of the cold war in the former Soviet states. These countries have worked with various degrees of success to privatize their own state-owned industries and build various institutions that allow for democracy and prosperity.    In short, for them corruption has been a common stumbling block to progress, as it is also, as we recognize, in Third World countries, whether or not it is petty corruption, perhaps by a police officer who is looking to give you a ticket or, at a grander level of corruption, where private interests actually capture control of large chunks of state assets. It hampers reforms, corruption holds back economic growth, and in far too many cases it also impoverishes low-income populations in countries that could be doing much better for their entire population.    Now, when government institutions serve private interests, enriching oligarchs and enriching politicians instead of addressing the needs of its people, that undermines the faith in government and the rule of law, it undermines the basic stability and any chance for prosperity, at least any chance for ordinary people to live in prosperity in these countries.    Hence, if we understand the general aim of U.S. policy as promoting prosperous, peaceful, and pluralistic countries, fighting corruption should be at the center of that effort. Unfortunately, it is not, and perhaps because there are powerful Western accomplices to these crimes of corruption in developing countries.    While we should call out and hold accountable corrupt officials, it is important to understand that in some places corruption is the rule, not the exception. I would like to cite a recent survey released by Transparency International that found that one in three people living in Europe and Central Asia believe corruption to be one of the largest problems of their country.    Policymakers in the United States and Europe need to think about broad and systematic approaches to this challenge. For example, Western banks, are they complicit in money laundering for corrupt officials? Does that make them an accomplice to the theft of resources that should serve the poorest and most vulnerable people of the world, but instead those resources are being utilized and the profit from it are going to large financial institutions in cooperation with local gangsters and thugs in those countries?    What about us? Could we do more to ensure that corrupt officials can't store their ill-gotten gains in Western banks or use it to buy property or businesses in our country?    This is too much for today, it is too much for just today, but it will be the subject for an investigative hearing or investigative hearings in the years ahead, whether I am here or not.    I am looking forward to a discussion today of these things with our witnesses, and I look forward to their testimonies. And without objection, their written statements will be made part of the record.    And I will turn to my ranking member, Mr. Gregory Meeks.</t>
   </si>
   <si>
     <t>400271</t>
   </si>
   <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meeks. I want to thank you, Mr. Chairman, for calling this timely hearing--our last. I guess, this will be our last of the 114th Congress----</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Thank you, Mr. Chairman.    And I want to associate myself with the remarks just made by my good friend from New York. And I also salute the bravery of our guest witness here today. Thank you for participating.    And I would ask unanimous consent my full statement be entered into the record at this time.</t>
   </si>
   <si>
@@ -91,18 +109,27 @@
     <t xml:space="preserve">    Mr. Rohrabacher. And Mr. Weber has decided not to have an opening statement; although, I am sure he would like to comment on how the Democratic candidates deserve to be investigated in our last election in their financial dealings as well. But I won't put words into his mouth, but I thought somebody needed to make that point.    So with that said, I would like to welcome the witnesses. And if we could, if you could summarize your testimony in 5-minute segments, and then we will get into the questions and answers. And what I will do is I will introduce all of you and then we will start with Mr. Davidson after this introduction.    So we have Charles Davidson, who is the executive director of Kleptocracy Initiative at the Hudson Institute, as well as being the publisher of the American Interest magazine. The Kleptocracy Initiative and its stated goal is to conduct original research into the growing threat posed by democracies by autocratic regimes structured as kleptocracies.    And I think it will be very fascinating to get into some definitions, not only kleptocracy but exactly what is corruption and what is not corruption. And looking forward to your testimony.    And then we have also with us Ivan Vejvoda, who is a senior vice president for programs at the German Marshall Fund here in Washington. From 2010 to 2013 he was the executive director of that organization's Balkan Trust for Democracy Program. Before that, he was an adviser to the Serbian Government and a long-time advocate of democracy in that region and honest government.    And we have also with us today, and as we heard from Mr. Meeks, a Russian-born businessman, Mr. Sergei Kolesnikov.    Is that right? Did I get it?</t>
   </si>
   <si>
+    <t>Kolesnikov</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kolesnikov. Kolesnikov.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Okay. And we are very happy to have you with us today.    He is a Russian-born businessman who has traveled from outside the United States to come here today to testify at this hearing. In 2010, he left Russia and went to the press about certain allegations of high-level corruption within the Russian Government.    So today we are going to be focusing on corruption both in theory and definitions of what is and what is taking place, but also in specifics in terms of different examples of corruption that are going on and how they impact--which is important--how that corruption impacts the people of the countries which are suffering from that corruption of their government.    So with that said, Mr. Davidson, you may begin your 5-minute presentation.</t>
   </si>
   <si>
+    <t>Davidson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davidson. Mr. Chairman, Ranking Member Meeks, and distinguished members of the subcommittee, I appreciate the invitation to appear before you today. And I must say, these opening statements were so impressive to me. I think that Chairman Rohrabacher's statement perfectly summarizes the overall issue. And I agree with everything that Mr. Meeks said.    So I will try to run through my statement very rapidly and touch on this enabler issue which was brought up, and go to the conclusions as to what we can do about this sort of thing. So I am going to gloss over agreeing with you on these various matters.    And in terms of what corruption does to societies in undermining rule of law, subverting institutions, encouraging cultures of lawlessness, how it impoverishes the citizens of these countries, we all see this. I think it is worth reminding ourselves again and again that the Maidan Revolution was really about corruption. All those young people were talking about corruption all the time. It was really the driver of that revolution.    And in terms of the definitions and how all this evolved, institutionalized corruption, when it becomes the norm and consolidates its political power and we get actual state capture, that is what we talk about at least in terms of being kleptocracy. It is when corruption has really taken over the state and we get the rule of thieves.    And obviously, these kleptocratic regimes have little appetite for democracy. I think an important point, in particular for our business community, is that these regimes have very little taste for free-market competition, so little taste that, in fact, corruption and exporting it is sort of an existential issue for them. They can't compete in the free market.    And we have, indeed, as was mentioned, been a partner in this whole system. And the way that has worked--and we published an article about this called, ``Stage Hands: How Western Enablers Facilitate Kleptocracy''--well, first, you have got to be able to loot the country, take it out of the country and put it in a safe place. We provide that safe place. Then, of course, there is a third stage where you hire public relations people and you put your children in the right schools and you become a full-fledged member of the West and become a very respectable person.    And I think another thing we need to focus on more is the issue of incentive. When we do this, when we provide this safe haven, we are incentivizing corruption, and then we are further incentivizing all the way to kleptocracy. And this is something we really need to think about, and stop providing the punch bowl, if you will.    The Ukrainian example we have already looked at.    We don't really talk enough about authoritarianism in all of this. What we see now with the authoritarian threats is that authoritarian regimes that have become very militarily aggressive--and there are two I have in mind, which I barely need to name. They both happen to be structured as kleptocracies. Their elites are keeping their loot in the West, in our banks and financial institutions, in our real estate. And you would think we have a little bit of leverage over them, perhaps more than we are using.    On this overall issue I mentioned, we published a paper called ``The Kleptocracy Curse,'' which may be of interest, which is almost an expansion of Chairman Rohrabacher's initial statement, expands on all those points.    What can we do? I have 33 seconds to talk about that, and I will go right to the issue of anonymous companies, shell companies, whatever we want to call them. There are a few other recommendations in the testimony, they all pale in the face of the importance of the anonymous company question, in my opinion and in the opinion of many people that I have spoken with in law enforcement and the State Department, private investigators, large private investigator firms. There seems to be a real consensus that this is a huge part of the problem.    And I will leave it at that. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. You may proceed.</t>
   </si>
   <si>
+    <t>Vejvoda</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vejvoda. Mr. Chairman, Ranking Member, members of the committee, thank you very much for the invitation to testify before you today on this important subject, as we have heard both from the introductory statements and from my colleague Charles Davidson.    Democratic transitions after 1989 confront the issue of the fact that there was practically no democratic political culture in the post-Communist space, in the space where one party ruled there was no pluralism, and where human rights were unknown to people. And so it had to begin with, as Hannah Arendt would put it, giving people the right, to understand that they have a right to have rights.    And so the legacy of the old, the inertia of the old corrupt ways lives on as the democratic transition advances and as the democratic political culture tries to find its roots. And probably the best comparison is between Poland and Ukraine that had the same level of economic development in 1990. We see where Poland is today and we see what has happened to Ukraine, complete differences in standards of living and the institutional democratic culture, not that Poland is without problems today, as we know.    The political winners of the Communist system--the political losers as democratic transition happens become the economic winners because they have all the inside information. They have the network through the secret services. And ultimately, as economic winners, they again become the political winners because of the nexus between the oligarchic structures and political parties.    One particularly difficult issue that is addressed is that of political parties themselves, as they rise from nowhere after the crumbling of the Communist system. And the problem there is the financing of political parties. Where do these parties find moneys to actually have a party structure throughout a country?    And that means, of course, that they have to lean on private business, and this is where a lot of the corrupt practices between the politics and economics, to speak all too gently, happens and where a lot of the corrupt practices. Of course, in Western societies we know that there are also these kinds of issues, but I would really like to highlight that problem in addressing the issue of corruption.    I, unfortunately, coming from the former Yugoslavia and Serbia, had to live through the worst of a criminalization of society and the state of Serbia under sanctions that were imposed in 1992. For a country under sanctions to survive, it goes into full corrupt mode.    And so when we emerged from the Milosevic regime in 2000, this was the state of affairs that we had to confront, how does one start pushing back this criminalization that was pervasive through the state. And of course it requires what other post-Communist countries do, and that is to reinforce the structures of democratic institutions, of structural reform, et cetera.    But that, as you know, requires support from the outside. And the role that the United States, Canada, the European Union member states, with their support through USAID, through development agencies has been extremely important.    It, of course, behooves the citizens and governments in each of these countries, whether we are talking about Ukraine, Moldova, Serbia, Montenegro, Albania, Kosovo, to actually do the work of reform. They need to be the stakeholders. They need to sense the desire of citizens to have a society democratic based on the rule of law and human rights.    And so that burden is principally on them, but it cannot be done without the principle of solidarity that we have seen delivered through these 25 and more years. And it requires in terms of what is to be done a holistic approach, and some of it we have already heard from Charles Davidson. So support to journalists, investigative reporting, support to civil society that pressures from below the governments to make them more accountable and responsible. Customs are an extremely sensitive point.    But the key and the backbone is judicial reform, a truly independent judiciary where citizens feel that no one is above the law and that everyone gets a fair trial. And we see the difficulties in acquiring fully independent judiciaries.    And so I would urge that the continuing work of USAID with the European Union in support of these democratic processes is one of the backbones, as I said, along with the citizens themselves and their elected officials pushing toward strengthening the rule of law and creating further stability for democratic political culture.</t>
   </si>
   <si>
@@ -200,6 +227,12 @@
   </si>
   <si>
     <t>412574</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    Mr. Vejvoda, you said political losses become economic winners in the new economy because they have insider information. So what you are seeing is a government, a country in turmoil, where it is going down because of the corruption, and yet the very ones who caused it to go down actually become the economic winners in the new order, if you will. Fix that for me.</t>
@@ -767,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2957 +830,3461 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
       <c r="H59" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G77" t="s">
+        <v>71</v>
+      </c>
       <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
       <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
       <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
       <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
       <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>37</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
       <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
       <c r="H113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
       <c r="H115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
       <c r="H117" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
       <c r="H122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>134</v>
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22866.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22866.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rohrabacher</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400271</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Meeks</t>
   </si>
   <si>
@@ -227,6 +236,9 @@
   </si>
   <si>
     <t>412574</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Weber</t>
@@ -800,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +820,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,3458 +845,3716 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G77" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H79" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>37</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I109" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I111" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>40</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>37</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>145</v>
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
